--- a/Documentation/Power Calcs.xlsx
+++ b/Documentation/Power Calcs.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DamianL\Desktop\Radar Project\hardware\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DL\Documents\GitHub\hardware\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="10540" xr2:uid="{52B0D885-0B63-4093-912F-761685ADA04F}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="10545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="27">
   <si>
     <t>Max Input</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Amp 2 (Av = 100)</t>
   </si>
   <si>
-    <t>Amp 3 (Av =1)</t>
-  </si>
-  <si>
     <t>High</t>
   </si>
   <si>
@@ -84,12 +81,36 @@
   </si>
   <si>
     <t>Amp 3 (Av =1000)</t>
+  </si>
+  <si>
+    <t>Close Range:</t>
+  </si>
+  <si>
+    <t>"Long" Range:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amp 1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amp 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amp 3 </t>
+  </si>
+  <si>
+    <t>Total Gain =</t>
+  </si>
+  <si>
+    <t>Adj</t>
+  </si>
+  <si>
+    <t>r1 =1K</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -119,8 +140,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -434,21 +456,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB9E6ACE-D906-42B7-8E0D-5BA4C88D5AB5}">
-  <dimension ref="A5:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:M31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.36328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" customWidth="1"/>
     <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" customWidth="1"/>
     <col min="11" max="11" width="15" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>13</v>
       </c>
@@ -456,7 +481,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -494,7 +519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>1</v>
       </c>
@@ -532,12 +557,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>-24</v>
       </c>
@@ -561,10 +586,10 @@
         <v>6</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G12" t="s">
         <v>8</v>
       </c>
@@ -578,21 +603,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G13" t="s">
         <v>8</v>
       </c>
-      <c r="H13">
-        <v>12</v>
-      </c>
       <c r="K13" t="s">
         <v>8</v>
       </c>
-      <c r="L13">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G14" t="s">
         <v>9</v>
       </c>
@@ -606,7 +625,7 @@
         <v>-6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G15" t="s">
         <v>11</v>
       </c>
@@ -620,65 +639,136 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="G16" t="s">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G17" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17">
+        <f>SUM(H12:H16)</f>
+        <v>2</v>
+      </c>
+      <c r="K17" t="s">
+        <v>10</v>
+      </c>
+      <c r="L17">
+        <f>SUM(L12:L16)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G19" t="s">
+        <v>19</v>
+      </c>
+      <c r="H19">
+        <f>B6+H17</f>
+        <v>-38</v>
+      </c>
+      <c r="I19">
+        <f>SQRT(50*POWER(10,(H19/10))/1000)*2.8284</f>
+        <v>7.9620670537484933E-3</v>
+      </c>
+      <c r="J19" t="s">
+        <v>3</v>
+      </c>
+      <c r="K19" t="s">
+        <v>20</v>
+      </c>
+      <c r="L19">
+        <f>L17+B7</f>
+        <v>-108</v>
+      </c>
+      <c r="M19">
+        <f>SQRT(50*POWER(10,(L19/10))/1000)*2.8284</f>
+        <v>2.5178266772831499E-6</v>
+      </c>
+    </row>
+    <row r="26" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G26" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26">
+        <v>100</v>
+      </c>
+      <c r="K26" t="s">
         <v>12</v>
       </c>
-      <c r="H16">
-        <v>20</v>
-      </c>
-      <c r="K16" t="s">
-        <v>12</v>
-      </c>
-      <c r="L16">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="G17" t="s">
+      <c r="L26">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" t="s">
+        <v>22</v>
+      </c>
+      <c r="H27">
+        <f>390/1000</f>
+        <v>0.39</v>
+      </c>
+      <c r="J27" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" t="s">
         <v>15</v>
       </c>
-      <c r="H17">
-        <v>20</v>
-      </c>
-      <c r="K17" t="s">
-        <v>15</v>
-      </c>
-      <c r="L17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="E18" t="s">
+      <c r="L27">
+        <v>100</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="K28" t="s">
         <v>18</v>
       </c>
-      <c r="G18" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="K18" t="s">
-        <v>19</v>
-      </c>
-      <c r="L18">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="5:12" x14ac:dyDescent="0.35">
-      <c r="G23" t="s">
+      <c r="L28">
         <v>10</v>
       </c>
-      <c r="H23">
-        <f>SUM(H12:H22)</f>
-        <v>54</v>
-      </c>
-      <c r="K23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <f>SUM(L12:L22)</f>
-        <v>84</v>
+    </row>
+    <row r="29" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="D29" s="1">
+        <v>1.9999808199080298E-6</v>
+      </c>
+      <c r="G29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H29">
+        <f>H26*H27*H28</f>
+        <v>390</v>
+      </c>
+      <c r="K29" t="s">
+        <v>24</v>
+      </c>
+      <c r="L29">
+        <f>L26*L27*L28</f>
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="31" spans="4:13" x14ac:dyDescent="0.25">
+      <c r="H31">
+        <f>I19*H29</f>
+        <v>3.1052061509619122</v>
+      </c>
+      <c r="I31" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <f>M19*L29</f>
+        <v>0.25178266772831498</v>
       </c>
     </row>
   </sheetData>
